--- a/data/trans_camb/P23_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,68</t>
+          <t>-4,54; 5,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,85</t>
+          <t>-6,13; 4,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 8,07</t>
+          <t>-5,97; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,66</t>
+          <t>-2,48; 11,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,57</t>
+          <t>-4,86; 9,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,84</t>
+          <t>-2,13; 5,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,71</t>
+          <t>-0,86; 8,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,93</t>
+          <t>-2,09; 6,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,13</t>
+          <t>-4,76; 5,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 4,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 4,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 4,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 7,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 6,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,57%</t>
+          <t>-22,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>113,28%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>67,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>119,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-10,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 241,74</t>
+          <t>-67,05; 252,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,77; 188,26</t>
+          <t>-86,09; 283,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,42; 322,02</t>
+          <t>-83,29; 294,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 486,42</t>
+          <t>-56,57; 732,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 802,27</t>
+          <t>-50,74; 248,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,55; 676,39</t>
+          <t>-54,01; 577,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 206,97</t>
+          <t>-36,25; 847,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 154,2</t>
+          <t>-62,44; 771,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 246,23</t>
+          <t>-70,78; 231,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-80,17; 198,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 207,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-44,24; 212,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-63,05; 218,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-39,27; 249,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-52,7; 164,34</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 10,83</t>
+          <t>-1,74; 13,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,28</t>
+          <t>-3,75; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,83</t>
+          <t>2,21; 24,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,08</t>
+          <t>-13,77; 9,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,86</t>
+          <t>-5,57; 11,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,19</t>
+          <t>-4,47; 2,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 5,61</t>
+          <t>-3,82; 4,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,19</t>
+          <t>-3,18; 5,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 7,4</t>
+          <t>-5,65; 4,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 5,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 6,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 1,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 14,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; 5,32</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 7,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>99,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-46,34%</t>
+          <t>-47,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>334,75%</t>
+          <t>419,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>107,18%</t>
+          <t>-8,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>167,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-88,03; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 1900,18</t>
+          <t>32,72; 3932,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,42; 182,85</t>
+          <t>-73,11; 170,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 270,46</t>
+          <t>-46,35; 219,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,28; 181,18</t>
+          <t>-76,81; 144,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 283,41</t>
+          <t>-61,21; 179,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 133,76</t>
+          <t>-60,55; 265,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 421,25</t>
+          <t>-66,33; 150,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-60,04; 431,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-57,31; 318,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-60,85; 115,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 704,18</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-67,22; 97,61</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-34,64; 198,21</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,32</t>
+          <t>-7,58; -0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 3,26</t>
+          <t>-5,43; 2,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,91</t>
+          <t>-2,9; 8,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,73</t>
+          <t>-2,84; 12,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 1,16</t>
+          <t>-0,35; 13,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 9,94</t>
+          <t>-6,51; 0,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,73</t>
+          <t>-6,16; 0,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,03</t>
+          <t>-5,25; 2,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,29</t>
+          <t>-1,27; 6,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 2,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; -1,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 0,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 4,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 9,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 6,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,7%</t>
+          <t>-61,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-24,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,95%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>-45,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-50,6%</t>
+          <t>-38,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,41%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>58,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-29,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-53,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-31,69%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>70,18%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,66; 9,09</t>
+          <t>-87,79; -3,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,01; 93,2</t>
+          <t>-63,74; 72,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 198,43</t>
+          <t>-38,28; 227,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,69; 26,01</t>
+          <t>-33,17; 242,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 35,23</t>
+          <t>-5,88; 288,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 250,5</t>
+          <t>-77,98; 21,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,0; -14,31</t>
+          <t>-72,22; 29,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,33; 27,57</t>
+          <t>-64,37; 60,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 156,7</t>
+          <t>-25,34; 219,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-62,59; 30,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-76,72; -20,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-61,1; 12,5</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-37,09; 94,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 186,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-25,96; 89,01</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,08</t>
+          <t>-10,74; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 4,58</t>
+          <t>-7,58; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 10,06</t>
+          <t>-9,23; 3,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,37</t>
+          <t>3,88; 15,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,14</t>
+          <t>-2,26; 10,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 10,04</t>
+          <t>-2,81; 5,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,13</t>
+          <t>-2,64; 5,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,61</t>
+          <t>-1,61; 6,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,84</t>
+          <t>-6,65; 2,93</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 1,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 1,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 3,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 4,12</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 7,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 3,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-45,35%</t>
+          <t>-49,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>159,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,18%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>-23,72%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-36,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 43,53</t>
+          <t>-83,79; 15,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 128,34</t>
+          <t>-69,56; 105,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 276,94</t>
+          <t>-71,9; 84,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 118,11</t>
+          <t>43,7; 377,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 99,73</t>
+          <t>-18,81; 133,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 187,73</t>
+          <t>-31,62; 99,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 41,98</t>
+          <t>-32,19; 96,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 70,47</t>
+          <t>-20,98; 126,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 150,87</t>
+          <t>-55,16; 42,31</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-64,81; 19,85</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-50,39; 37,49</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-37,65; 63,37</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-32,46; 81,69</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 114,7</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-31,62; 45,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,4</t>
+          <t>-5,59; 5,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,34</t>
+          <t>-5,7; 3,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 13,87</t>
+          <t>-2,66; 8,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 4,67</t>
+          <t>0,94; 14,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,5</t>
+          <t>-4,04; 11,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 13,47</t>
+          <t>-5,72; 4,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,07</t>
+          <t>-5,04; 5,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,24</t>
+          <t>-1,12; 11,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,88</t>
+          <t>-2,03; 12,71</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 11,38</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 3,28</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,99</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 8,02</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 11,42</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 8,73</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-14,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>107,79%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>-9,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>38,83%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>50,15%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>57,2%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 129,26</t>
+          <t>-64,79; 147,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 90,21</t>
+          <t>-60,31; 76,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15,18; 332,95</t>
+          <t>-32,56; 225,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 83,18</t>
+          <t>2,81; 262,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 88,86</t>
+          <t>-23,55; 117,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,2; 231,55</t>
+          <t>-51,77; 80,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 49,86</t>
+          <t>-44,39; 101,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 54,51</t>
+          <t>-14,97; 181,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,63; 196,29</t>
+          <t>-12,46; 135,54</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 93,05</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-49,42; 56,83</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-41,5; 50,55</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 133,91</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 124,52</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-11,36; 72,58</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-4,77</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,55</t>
+          <t>-1,11; 8,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 7,59</t>
+          <t>-1,96; 8,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,87; 14,64</t>
+          <t>-3,25; 8,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 2,22</t>
+          <t>-2,14; 12,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 3,59</t>
+          <t>-9,12; 7,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 11,9</t>
+          <t>-10,31; 2,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,58</t>
+          <t>-9,65; 3,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,59</t>
+          <t>-0,58; 16,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 10,77</t>
+          <t>-14,41; 2,92</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 8,57</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 3,35</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 4,07</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 10,69</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 4,74</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 4,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>165,19%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>-32,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>-25,26%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-3,54%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 357,52</t>
+          <t>-22,07; 422,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 336,59</t>
+          <t>-35,59; 446,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 679,71</t>
+          <t>-60,43; 355,09</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 35,73</t>
+          <t>-41,55; 385,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 61,31</t>
+          <t>-58,58; 112,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 163,16</t>
+          <t>-67,14; 32,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 59,24</t>
+          <t>-60,36; 49,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 62,11</t>
+          <t>-9,56; 213,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 182,69</t>
+          <t>-57,79; 23,7</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-48,01; 95,5</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-45,3; 58,04</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-41,59; 71,31</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 191,94</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-38,36; 46,76</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-42,73; 52,14</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,4</t>
+          <t>-2,46; 1,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,44</t>
+          <t>-2,21; 1,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,15</t>
+          <t>-0,18; 5,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,08</t>
+          <t>2,0; 8,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,72</t>
+          <t>0,19; 6,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,29</t>
+          <t>-3,04; 0,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,69</t>
+          <t>-2,17; 1,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,1</t>
+          <t>0,36; 5,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,97</t>
+          <t>-2,41; 2,51</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 2,19</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 0,62</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,08</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 4,44</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,85</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 3,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 35,73</t>
+          <t>-40,55; 40,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 36,08</t>
+          <t>-35,66; 31,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>33,92; 172,47</t>
+          <t>-5,89; 122,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 19,35</t>
+          <t>15,92; 138,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 29,28</t>
+          <t>1,72; 82,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>14,08; 107,2</t>
+          <t>-36,84; 17,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 13,17</t>
+          <t>-27,7; 31,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 20,72</t>
+          <t>3,36; 88,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>38,1; 115,03</t>
+          <t>-21,78; 29,87</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; 23,83</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 11,73</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 20,18</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 82,72</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 62,9</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 38,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
